--- a/data/trans_dic/P2A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Edad-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna limitación</t>
+          <t>Hogares con personas con alguna condición</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 24,49</t>
+          <t>17,42; 24,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,29; 29,24</t>
+          <t>21,26; 29,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,02; 30,83</t>
+          <t>21,91; 30,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>74,35; 87,67</t>
+          <t>74,32; 87,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,62; 37,33</t>
+          <t>28,95; 37,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,78; 40,69</t>
+          <t>32,22; 41,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,03; 32,93</t>
+          <t>23,6; 32,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>75,62; 86,95</t>
+          <t>75,86; 87,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,39; 29,6</t>
+          <t>23,99; 29,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,45; 33,55</t>
+          <t>27,34; 33,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,28; 30,35</t>
+          <t>24,2; 30,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>76,67; 85,84</t>
+          <t>77,35; 86,25</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,67; 30,3</t>
+          <t>23,04; 30,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,26; 34,61</t>
+          <t>27,36; 34,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,79; 28,43</t>
+          <t>21,77; 28,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,56; 87,94</t>
+          <t>79,91; 87,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,83; 42,57</t>
+          <t>34,95; 42,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,8; 42,97</t>
+          <t>35,48; 43,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,15; 38,21</t>
+          <t>30,7; 38,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>68,78; 82,63</t>
+          <t>70,53; 83,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,73; 34,64</t>
+          <t>29,56; 34,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,15; 37,28</t>
+          <t>32,02; 37,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,17; 32,4</t>
+          <t>26,81; 32,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>76,41; 84,09</t>
+          <t>75,91; 84,38</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,0; 36,57</t>
+          <t>28,92; 36,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,23; 37,97</t>
+          <t>30,46; 38,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,59; 33,99</t>
+          <t>26,21; 33,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,18; 85,94</t>
+          <t>79,39; 85,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,62; 48,1</t>
+          <t>40,84; 48,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,49; 49,23</t>
+          <t>41,84; 49,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,38; 44,9</t>
+          <t>37,34; 44,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>74,49; 81,21</t>
+          <t>74,29; 81,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>35,84; 41,72</t>
+          <t>36,36; 41,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,21; 42,39</t>
+          <t>37,37; 42,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33,17; 38,56</t>
+          <t>33,25; 38,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>77,89; 82,36</t>
+          <t>77,78; 82,37</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,83; 50,03</t>
+          <t>40,84; 49,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,45; 47,88</t>
+          <t>39,55; 48,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>41,78; 50,35</t>
+          <t>42,36; 50,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,37; 84,4</t>
+          <t>76,54; 84,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,64; 57,28</t>
+          <t>48,75; 57,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,97; 58,4</t>
+          <t>49,87; 58,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,22; 55,35</t>
+          <t>47,25; 55,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,77; 75,59</t>
+          <t>69,06; 75,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>45,83; 52,09</t>
+          <t>46,01; 52,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,75; 51,85</t>
+          <t>45,89; 51,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45,94; 51,65</t>
+          <t>46,12; 51,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>73,77; 79,09</t>
+          <t>73,74; 79,42</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>54,7; 64,22</t>
+          <t>54,37; 63,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,63; 61,6</t>
+          <t>51,78; 62,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,4; 60,11</t>
+          <t>50,5; 59,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>64,23; 71,72</t>
+          <t>63,78; 71,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>50,35; 59,93</t>
+          <t>49,67; 59,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,78; 60,68</t>
+          <t>50,36; 60,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>59,74; 68,96</t>
+          <t>60,05; 68,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59,39; 65,84</t>
+          <t>59,45; 65,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,41; 60,7</t>
+          <t>53,53; 60,52</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>53,07; 59,88</t>
+          <t>52,74; 59,83</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>56,36; 63,2</t>
+          <t>56,67; 63,16</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>62,77; 67,49</t>
+          <t>62,89; 67,72</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>49,46; 57,94</t>
+          <t>49,26; 57,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>55,83; 64,63</t>
+          <t>56,03; 64,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>58,71; 66,14</t>
+          <t>58,62; 66,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>59,03; 65,0</t>
+          <t>58,88; 64,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>63,65; 70,84</t>
+          <t>63,35; 70,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>62,07; 69,25</t>
+          <t>62,37; 68,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>65,65; 73,03</t>
+          <t>65,89; 73,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>58,54; 74,51</t>
+          <t>58,7; 75,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,49; 64,16</t>
+          <t>58,8; 64,23</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>60,73; 66,15</t>
+          <t>60,04; 65,74</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>63,85; 68,98</t>
+          <t>63,93; 68,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>59,82; 70,3</t>
+          <t>59,89; 71,14</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>36,23; 39,6</t>
+          <t>36,04; 39,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,35; 42,88</t>
+          <t>39,45; 42,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39,24; 42,71</t>
+          <t>39,38; 42,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>73,57; 77,2</t>
+          <t>73,71; 77,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>47,2; 50,67</t>
+          <t>47,38; 50,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,54; 52,13</t>
+          <t>48,49; 52,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>48,39; 51,71</t>
+          <t>48,08; 51,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>69,42; 73,96</t>
+          <t>69,5; 73,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>42,24; 44,68</t>
+          <t>42,26; 44,73</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>44,53; 47,02</t>
+          <t>44,46; 47,01</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>44,45; 46,9</t>
+          <t>44,4; 46,87</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>71,99; 74,82</t>
+          <t>71,95; 74,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,42; 24,4</t>
+          <t>17,51; 25,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,26; 29,34</t>
+          <t>21,27; 29,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,91; 30,66</t>
+          <t>21,59; 30,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,95; 37,24</t>
+          <t>29,09; 37,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,22; 41,37</t>
+          <t>31,87; 41,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,6; 32,85</t>
+          <t>23,46; 32,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,99; 29,65</t>
+          <t>24,16; 29,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,34; 33,55</t>
+          <t>27,44; 33,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,2; 30,32</t>
+          <t>23,98; 30,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,04; 30,02</t>
+          <t>23,45; 29,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,36; 34,47</t>
+          <t>27,33; 34,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,77; 28,85</t>
+          <t>21,5; 29,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,95; 42,95</t>
+          <t>34,75; 42,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,48; 43,24</t>
+          <t>34,72; 43,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,7; 38,34</t>
+          <t>30,38; 38,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,56; 34,73</t>
+          <t>29,71; 34,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,02; 37,46</t>
+          <t>32,09; 37,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,81; 32,16</t>
+          <t>26,92; 32,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,92; 36,39</t>
+          <t>28,66; 36,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,46; 38,18</t>
+          <t>30,42; 38,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,21; 33,54</t>
+          <t>26,54; 33,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,84; 48,43</t>
+          <t>41,12; 48,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,84; 49,64</t>
+          <t>41,52; 49,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,34; 44,87</t>
+          <t>37,82; 45,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36,36; 41,63</t>
+          <t>36,2; 41,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,37; 42,8</t>
+          <t>37,45; 42,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33,25; 38,54</t>
+          <t>32,92; 38,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,84; 49,67</t>
+          <t>40,82; 49,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,55; 48,01</t>
+          <t>39,31; 47,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,36; 50,53</t>
+          <t>42,47; 50,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,75; 57,69</t>
+          <t>48,52; 57,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,87; 58,82</t>
+          <t>50,37; 58,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,25; 55,47</t>
+          <t>47,43; 55,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,01; 52,2</t>
+          <t>45,9; 52,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,89; 51,83</t>
+          <t>46,03; 51,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>46,12; 51,82</t>
+          <t>45,68; 51,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>54,37; 63,92</t>
+          <t>54,41; 63,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,78; 62,05</t>
+          <t>51,52; 61,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,5; 59,63</t>
+          <t>50,01; 59,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,67; 59,92</t>
+          <t>50,32; 59,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,36; 60,45</t>
+          <t>51,14; 60,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>60,05; 68,87</t>
+          <t>60,04; 68,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,53; 60,52</t>
+          <t>53,71; 61,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>52,74; 59,83</t>
+          <t>52,91; 59,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>56,67; 63,16</t>
+          <t>56,74; 63,09</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>49,26; 57,87</t>
+          <t>49,29; 57,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>56,03; 64,68</t>
+          <t>55,72; 64,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>58,62; 66,19</t>
+          <t>58,87; 66,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>63,35; 70,57</t>
+          <t>63,55; 70,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>62,37; 68,95</t>
+          <t>61,82; 69,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>65,89; 73,21</t>
+          <t>65,61; 72,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,8; 64,23</t>
+          <t>58,55; 64,45</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>60,04; 65,74</t>
+          <t>60,34; 66,09</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>63,93; 68,98</t>
+          <t>63,76; 69,07</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>36,04; 39,46</t>
+          <t>36,28; 39,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,45; 42,71</t>
+          <t>39,48; 42,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39,38; 42,65</t>
+          <t>39,15; 42,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>47,38; 50,8</t>
+          <t>47,28; 50,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,49; 52,02</t>
+          <t>48,61; 52,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>48,08; 51,67</t>
+          <t>48,1; 51,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>42,26; 44,73</t>
+          <t>42,34; 44,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>44,46; 47,01</t>
+          <t>44,44; 46,93</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>44,4; 46,87</t>
+          <t>44,34; 46,73</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P2A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,51; 25,05</t>
+          <t>17,21; 24,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,27; 29,07</t>
+          <t>21,29; 29,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,59; 30,57</t>
+          <t>22,02; 30,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>74,32; 87,75</t>
+          <t>74,35; 87,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,09; 37,51</t>
+          <t>28,62; 37,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,87; 41,31</t>
+          <t>31,78; 40,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,46; 32,96</t>
+          <t>24,03; 32,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>75,86; 87,12</t>
+          <t>75,62; 86,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,16; 29,69</t>
+          <t>24,39; 29,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,44; 33,63</t>
+          <t>27,45; 33,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,98; 30,08</t>
+          <t>24,28; 30,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>77,35; 86,25</t>
+          <t>76,67; 85,84</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,45; 29,6</t>
+          <t>23,67; 30,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,33; 34,47</t>
+          <t>27,26; 34,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,5; 29,0</t>
+          <t>21,79; 28,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,91; 87,92</t>
+          <t>79,56; 87,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,75; 42,85</t>
+          <t>34,83; 42,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,72; 43,01</t>
+          <t>34,8; 42,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,38; 38,15</t>
+          <t>30,15; 38,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>70,53; 83,09</t>
+          <t>68,78; 82,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,71; 34,61</t>
+          <t>29,73; 34,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,09; 37,77</t>
+          <t>32,15; 37,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,92; 32,31</t>
+          <t>27,17; 32,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>75,91; 84,38</t>
+          <t>76,41; 84,09</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,66; 36,57</t>
+          <t>29,0; 36,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,42; 38,22</t>
+          <t>30,23; 37,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,54; 33,75</t>
+          <t>26,59; 33,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,39; 85,91</t>
+          <t>79,18; 85,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>41,12; 48,72</t>
+          <t>40,62; 48,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,52; 49,27</t>
+          <t>41,49; 49,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,82; 45,18</t>
+          <t>37,38; 44,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>74,29; 81,0</t>
+          <t>74,49; 81,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36,2; 41,49</t>
+          <t>35,84; 41,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,45; 42,58</t>
+          <t>37,21; 42,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,92; 38,18</t>
+          <t>33,17; 38,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>77,78; 82,37</t>
+          <t>77,89; 82,36</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,82; 49,84</t>
+          <t>40,83; 50,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,31; 47,59</t>
+          <t>39,45; 47,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,47; 50,64</t>
+          <t>41,78; 50,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,54; 84,47</t>
+          <t>76,37; 84,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,52; 57,43</t>
+          <t>48,64; 57,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,37; 58,66</t>
+          <t>49,97; 58,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,43; 55,62</t>
+          <t>47,22; 55,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,06; 75,57</t>
+          <t>69,77; 75,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>45,9; 52,25</t>
+          <t>45,83; 52,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>46,03; 51,9</t>
+          <t>45,75; 51,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45,68; 51,58</t>
+          <t>45,94; 51,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>73,74; 79,42</t>
+          <t>73,77; 79,09</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>54,41; 63,99</t>
+          <t>54,7; 64,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,52; 61,79</t>
+          <t>51,63; 61,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,01; 59,79</t>
+          <t>50,4; 60,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>63,78; 71,37</t>
+          <t>64,23; 71,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>50,32; 59,99</t>
+          <t>50,35; 59,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>51,14; 60,69</t>
+          <t>50,78; 60,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>60,04; 68,76</t>
+          <t>59,74; 68,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59,45; 65,74</t>
+          <t>59,39; 65,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,71; 61,13</t>
+          <t>53,41; 60,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>52,91; 59,86</t>
+          <t>53,07; 59,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>56,74; 63,09</t>
+          <t>56,36; 63,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>62,89; 67,72</t>
+          <t>62,77; 67,49</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>49,29; 57,73</t>
+          <t>49,46; 57,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>55,72; 64,69</t>
+          <t>55,83; 64,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>58,87; 66,02</t>
+          <t>58,71; 66,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>58,88; 64,88</t>
+          <t>59,03; 65,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>63,55; 70,39</t>
+          <t>63,65; 70,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>61,82; 69,0</t>
+          <t>62,07; 69,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>65,61; 72,94</t>
+          <t>65,65; 73,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>58,7; 75,3</t>
+          <t>58,54; 74,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,55; 64,45</t>
+          <t>58,49; 64,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>60,34; 66,09</t>
+          <t>60,73; 66,15</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>63,76; 69,07</t>
+          <t>63,85; 68,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>59,89; 71,14</t>
+          <t>59,82; 70,3</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>36,28; 39,59</t>
+          <t>36,23; 39,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,48; 42,87</t>
+          <t>39,35; 42,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39,15; 42,67</t>
+          <t>39,24; 42,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>73,71; 77,12</t>
+          <t>73,57; 77,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>47,28; 50,71</t>
+          <t>47,2; 50,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,61; 52,09</t>
+          <t>48,54; 52,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>48,1; 51,59</t>
+          <t>48,39; 51,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>69,5; 73,74</t>
+          <t>69,42; 73,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>42,34; 44,87</t>
+          <t>42,24; 44,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>44,44; 46,93</t>
+          <t>44,53; 47,02</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>44,34; 46,73</t>
+          <t>44,45; 46,9</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>71,95; 74,71</t>
+          <t>71,99; 74,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>33,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>32,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>81,72%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>39,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>43,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,37%</t>
+          <t>36,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>82,12%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>31,81%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>38,52%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>81,91%</t>
+          <t>28,44%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 24,49</t>
+          <t>20,97; 28,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,29; 29,24</t>
+          <t>29,2; 37,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,02; 30,83</t>
+          <t>27,78; 37,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>74,35; 87,67</t>
+          <t>20,93; 36,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,62; 37,33</t>
+          <t>34,75; 43,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,78; 40,69</t>
+          <t>39,23; 48,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,03; 32,93</t>
+          <t>32,22; 41,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>75,62; 86,95</t>
+          <t>21,26; 35,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,39; 29,6</t>
+          <t>29,06; 34,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,45; 33,55</t>
+          <t>35,33; 41,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,28; 30,35</t>
+          <t>31,26; 38,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>76,67; 85,84</t>
+          <t>23,19; 34,59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>30,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>84,26%</t>
+          <t>28,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,91%</t>
+          <t>44,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>49,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>41,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>78,59%</t>
+          <t>24,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,19%</t>
+          <t>37,36%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>34,73%</t>
+          <t>44,77%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>35,88%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>81,21%</t>
+          <t>26,24%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,67; 30,3</t>
+          <t>27,98; 34,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,26; 34,61</t>
+          <t>36,85; 44,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,79; 28,43</t>
+          <t>26,73; 34,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,56; 87,94</t>
+          <t>23,22; 34,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,83; 42,57</t>
+          <t>40,49; 48,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,8; 42,97</t>
+          <t>45,36; 53,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,15; 38,21</t>
+          <t>37,96; 45,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>68,78; 82,63</t>
+          <t>14,34; 29,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,73; 34,64</t>
+          <t>35,0; 40,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,15; 37,28</t>
+          <t>41,81; 47,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,17; 32,4</t>
+          <t>33,38; 38,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>76,41; 84,09</t>
+          <t>19,95; 30,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,62%</t>
+          <t>36,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>34,27%</t>
+          <t>43,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>82,8%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>44,58%</t>
+          <t>55,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>45,29%</t>
+          <t>57,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>50,16%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>77,61%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>38,83%</t>
+          <t>46,73%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>39,9%</t>
+          <t>50,69%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>43,27%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>80,08%</t>
+          <t>27,27%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,0; 36,57</t>
+          <t>32,84; 41,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,23; 37,97</t>
+          <t>39,04; 46,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,59; 33,99</t>
+          <t>32,73; 40,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,18; 85,94</t>
+          <t>21,03; 28,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,62; 48,1</t>
+          <t>52,25; 59,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,49; 49,23</t>
+          <t>54,31; 61,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,38; 44,9</t>
+          <t>46,53; 53,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>74,49; 81,21</t>
+          <t>21,96; 33,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>35,84; 41,72</t>
+          <t>43,71; 49,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,21; 42,39</t>
+          <t>47,98; 53,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33,17; 38,56</t>
+          <t>40,68; 46,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>77,89; 82,36</t>
+          <t>23,12; 29,84</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>45,16%</t>
+          <t>50,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>43,6%</t>
+          <t>52,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,48%</t>
+          <t>55,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>80,06%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>53,03%</t>
+          <t>66,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>54,19%</t>
+          <t>73,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>51,21%</t>
+          <t>61,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>72,74%</t>
+          <t>41,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>49,08%</t>
+          <t>58,75%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>48,9%</t>
+          <t>62,68%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>48,85%</t>
+          <t>58,49%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>76,34%</t>
+          <t>34,09%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,83; 50,03</t>
+          <t>46,33; 55,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,45; 47,88</t>
+          <t>47,67; 56,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>41,78; 50,35</t>
+          <t>50,81; 58,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,37; 84,4</t>
+          <t>11,82; 39,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,64; 57,28</t>
+          <t>62,87; 70,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,97; 58,4</t>
+          <t>69,51; 77,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,22; 55,35</t>
+          <t>57,76; 65,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,77; 75,59</t>
+          <t>34,95; 45,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>45,83; 52,09</t>
+          <t>55,5; 61,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,75; 51,85</t>
+          <t>59,88; 65,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45,94; 51,65</t>
+          <t>55,74; 61,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>73,77; 79,09</t>
+          <t>21,18; 41,51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>59,39%</t>
+          <t>76,85%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>56,98%</t>
+          <t>77,52%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>55,07%</t>
+          <t>66,93%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>68,05%</t>
+          <t>52,82%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>54,99%</t>
+          <t>80,18%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>55,92%</t>
+          <t>87,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>64,63%</t>
+          <t>82,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>62,57%</t>
+          <t>54,95%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>57,14%</t>
+          <t>78,55%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>56,44%</t>
+          <t>82,81%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>59,94%</t>
+          <t>75,07%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>65,32%</t>
+          <t>53,87%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>54,7; 64,22</t>
+          <t>72,52; 80,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,63; 61,6</t>
+          <t>73,31; 81,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,4; 60,11</t>
+          <t>62,47; 71,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>64,23; 71,72</t>
+          <t>48,73; 57,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>50,35; 59,93</t>
+          <t>76,12; 83,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,78; 60,68</t>
+          <t>84,29; 90,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>59,74; 68,96</t>
+          <t>78,55; 86,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59,39; 65,84</t>
+          <t>51,82; 58,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,41; 60,7</t>
+          <t>75,25; 81,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>53,07; 59,88</t>
+          <t>79,69; 85,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>56,36; 63,2</t>
+          <t>71,96; 77,63</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>62,77; 67,49</t>
+          <t>51,41; 56,57</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>53,64%</t>
+          <t>80,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>62,51%</t>
+          <t>88,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>54,32%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>67,29%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>65,64%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>69,51%</t>
+          <t>91,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>63,87%</t>
+          <t>77,13%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>61,47%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>63,25%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>66,49%</t>
+          <t>90,21%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>63,06%</t>
+          <t>68,53%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>49,46; 57,94</t>
+          <t>75,85; 85,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>55,83; 64,63</t>
+          <t>90,77; 96,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>58,71; 66,14</t>
+          <t>84,85; 91,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>59,03; 65,0</t>
+          <t>50,32; 58,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>63,65; 70,84</t>
+          <t>89,84; 95,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>62,07; 69,25</t>
+          <t>91,78; 96,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>65,65; 73,03</t>
+          <t>88,02; 94,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>58,54; 74,51</t>
+          <t>64,45; 91,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,49; 64,16</t>
+          <t>84,65; 89,78</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>60,73; 66,15</t>
+          <t>92,33; 96,01</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>63,85; 68,98</t>
+          <t>87,57; 92,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>59,82; 70,3</t>
+          <t>59,26; 85,58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>41,02%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>75,35%</t>
+          <t>72,06%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>49,04%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>50,26%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>96,81%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>71,19%</t>
+          <t>76,41%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>45,76%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>45,61%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>73,14%</t>
+          <t>74,67%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>36,23; 39,6</t>
+          <t>88,59; 95,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,35; 42,88</t>
+          <t>92,06; 97,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39,24; 42,71</t>
+          <t>90,61; 95,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>73,57; 77,2</t>
+          <t>67,87; 76,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>47,2; 50,67</t>
+          <t>92,93; 97,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,54; 52,13</t>
+          <t>95,04; 98,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>48,39; 51,71</t>
+          <t>93,94; 98,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>69,42; 73,96</t>
+          <t>73,62; 79,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>42,24; 44,68</t>
+          <t>92,41; 96,42</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>44,53; 47,02</t>
+          <t>94,65; 97,81</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>44,45; 46,9</t>
+          <t>93,71; 96,94</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>71,99; 74,82</t>
+          <t>72,38; 77,03</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>48,15%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>55,65%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>52,22%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>38,12%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>63,83%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>69,19%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>63,74%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>47,92%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>56,11%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>62,54%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>58,11%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>43,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>46,5; 50,03</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>53,81; 57,5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>50,34; 53,93</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>29,17; 41,77</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>62,11; 65,44</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>67,48; 70,74</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>62,08; 65,28</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>43,9; 56,44</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>54,84; 57,32</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>61,34; 63,73</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>56,89; 59,25</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>39,11; 47,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P2A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna condición</t>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,97; 28,45</t>
+          <t>20,81; 28,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,2; 37,83</t>
+          <t>29,31; 38,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,78; 37,73</t>
+          <t>27,51; 37,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,93; 36,72</t>
+          <t>21,32; 37,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,75; 43,95</t>
+          <t>35,36; 44,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,23; 48,57</t>
+          <t>39,57; 49,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,22; 41,4</t>
+          <t>32,4; 41,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,26; 35,23</t>
+          <t>21,51; 35,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,06; 34,49</t>
+          <t>28,61; 34,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35,33; 41,73</t>
+          <t>35,47; 41,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31,26; 38,1</t>
+          <t>31,08; 37,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,19; 34,59</t>
+          <t>23,31; 34,78</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,98; 34,55</t>
+          <t>27,43; 34,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,85; 44,48</t>
+          <t>36,6; 44,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,73; 34,12</t>
+          <t>26,74; 34,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,22; 34,52</t>
+          <t>22,87; 34,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,49; 48,88</t>
+          <t>40,96; 48,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,36; 53,65</t>
+          <t>45,08; 53,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,96; 45,91</t>
+          <t>37,66; 45,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,34; 29,81</t>
+          <t>15,09; 29,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,0; 40,06</t>
+          <t>34,61; 39,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>41,81; 47,36</t>
+          <t>42,01; 47,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33,38; 38,78</t>
+          <t>32,93; 38,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,95; 30,51</t>
+          <t>19,71; 30,3</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,84; 41,04</t>
+          <t>33,11; 40,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,04; 46,84</t>
+          <t>38,66; 46,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,73; 40,86</t>
+          <t>32,91; 40,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,03; 28,77</t>
+          <t>20,83; 28,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,25; 59,77</t>
+          <t>52,06; 59,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,31; 61,83</t>
+          <t>54,39; 62,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,53; 53,98</t>
+          <t>46,48; 53,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,96; 33,48</t>
+          <t>23,33; 33,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>43,71; 49,75</t>
+          <t>43,95; 49,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>47,98; 53,45</t>
+          <t>47,7; 53,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40,68; 46,13</t>
+          <t>40,41; 46,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,12; 29,84</t>
+          <t>23,09; 29,96</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,33; 55,38</t>
+          <t>46,28; 55,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,67; 56,07</t>
+          <t>47,71; 56,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,81; 58,97</t>
+          <t>51,3; 59,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 39,44</t>
+          <t>12,32; 40,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>62,87; 70,91</t>
+          <t>62,71; 71,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>69,51; 77,06</t>
+          <t>69,83; 76,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,76; 65,47</t>
+          <t>58,09; 65,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,95; 45,07</t>
+          <t>35,33; 45,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>55,5; 61,89</t>
+          <t>55,72; 61,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59,88; 65,58</t>
+          <t>59,49; 65,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,74; 61,23</t>
+          <t>55,93; 61,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,18; 41,51</t>
+          <t>19,31; 41,13</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,52; 80,89</t>
+          <t>72,47; 80,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>73,31; 81,38</t>
+          <t>73,34; 81,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>62,47; 71,11</t>
+          <t>62,32; 71,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48,73; 57,07</t>
+          <t>49,12; 56,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>76,12; 83,82</t>
+          <t>76,03; 83,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>84,29; 90,77</t>
+          <t>84,45; 90,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>78,55; 86,31</t>
+          <t>78,8; 86,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>51,82; 58,11</t>
+          <t>51,61; 57,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>75,25; 81,28</t>
+          <t>75,35; 81,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>79,69; 85,1</t>
+          <t>80,05; 85,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>71,96; 77,63</t>
+          <t>72,01; 77,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>51,41; 56,57</t>
+          <t>51,31; 56,32</t>
         </is>
       </c>
     </row>
@@ -1424,42 +1425,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>75,85; 85,17</t>
+          <t>76,23; 85,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,77; 96,46</t>
+          <t>90,91; 96,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>84,85; 91,79</t>
+          <t>85,25; 92,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>50,32; 58,47</t>
+          <t>50,06; 58,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>89,84; 95,18</t>
+          <t>89,62; 95,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>91,78; 96,86</t>
+          <t>91,41; 96,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>88,02; 94,01</t>
+          <t>87,92; 94,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>64,45; 91,41</t>
+          <t>64,36; 90,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1470,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>92,33; 96,01</t>
+          <t>92,26; 96,06</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>87,57; 92,28</t>
+          <t>87,58; 92,25</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>59,26; 85,58</t>
+          <t>59,48; 82,78</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>88,59; 95,95</t>
+          <t>88,93; 95,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>92,06; 97,53</t>
+          <t>92,03; 97,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>90,61; 95,92</t>
+          <t>89,96; 96,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>67,87; 76,58</t>
+          <t>67,89; 76,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,93; 97,63</t>
+          <t>92,96; 97,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,04; 98,6</t>
+          <t>95,33; 98,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,94; 98,39</t>
+          <t>94,54; 98,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>73,62; 79,29</t>
+          <t>73,48; 79,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>92,41; 96,42</t>
+          <t>92,6; 96,52</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>94,65; 97,81</t>
+          <t>94,8; 97,79</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>93,71; 96,94</t>
+          <t>93,72; 96,94</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>72,38; 77,03</t>
+          <t>72,25; 77,46</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>46,5; 50,03</t>
+          <t>46,39; 50,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>53,81; 57,5</t>
+          <t>53,97; 57,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>50,34; 53,93</t>
+          <t>50,46; 54,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>29,17; 41,77</t>
+          <t>30,22; 41,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>62,11; 65,44</t>
+          <t>62,17; 65,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>67,48; 70,74</t>
+          <t>67,55; 70,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>62,08; 65,28</t>
+          <t>62,12; 65,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>43,9; 56,44</t>
+          <t>44,17; 58,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>54,84; 57,32</t>
+          <t>54,87; 57,41</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>61,34; 63,73</t>
+          <t>61,35; 63,74</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>56,89; 59,25</t>
+          <t>56,91; 59,33</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>39,11; 47,77</t>
+          <t>39,27; 48,31</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>121591</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>151917</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>136525</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>114838</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>184320</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>188737</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>145839</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>87970</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>305910</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>340654</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>282365</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>202808</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>102838; 140306</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>133108; 172570</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>115383; 157707</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>85274; 149996</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>165311; 206844</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>170228; 211365</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>128237; 163304</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>67357; 111716</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>275099; 336043</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>313648; 370648</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>253359; 308772</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>166270; 248037</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>227109</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>278845</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>178076</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>121227</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>281309</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>302003</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>236044</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>124331</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>508417</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>580849</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>414121</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>245558</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>201778; 252417</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>251483; 303318</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>157914; 204548</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>96882; 147829</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>256185; 304457</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>275132; 328657</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>212259; 259110</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>77256; 153002</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>471098; 541283</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>545053; 619537</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>379991; 446376</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>184399; 283529</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>235449</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>293889</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>243901</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>133721</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>385357</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>412126</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>331784</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>173986</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>620806</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>706014</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>575685</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>307707</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>211434; 260125</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>263591; 316814</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>220189; 269596</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>111711; 154776</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>359075; 410099</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>386596; 441451</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>307410; 356601</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>138085; 197884</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>583804; 654105</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>664363; 744334</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>537636; 614826</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>260517; 338033</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>264498</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>319924</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>356091</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>248815</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>343491</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>451585</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>401422</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>296830</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>607989</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>771509</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>757513</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>545645</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>240270; 289506</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>293245; 345630</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>331420; 384619</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>109359; 356138</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>323353; 366199</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>430275; 474393</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>377078; 427388</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>251874; 322842</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>576605; 641161</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>732252; 808926</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>724322; 795924</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>309109; 658388</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>297187</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>332914</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>319849</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>296422</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>323911</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>393510</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>411884</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>301097</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>621098</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>726424</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>731733</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>597519</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>280242; 312156</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>314930; 350034</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>297855; 342210</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>275695; 319587</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>307149; 339117</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>378147; 407101</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>391522; 430215</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>282777; 317537</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>595805; 642477</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>702264; 749988</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>701916; 759400</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>569116; 624616</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>236641</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>291647</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>297436</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>200003</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>318631</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>335068</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>344940</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>469225</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>555272</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>626715</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>642376</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>669228</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>223041; 250035</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>281630; 298939</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>285028; 308694</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>184305; 214125</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>307329; 326417</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>323591; 341810</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>332137; 356119</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>391568; 548461</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>537937; 570572</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>612387; 637608</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>623634; 656923</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>580850; 808391</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>195189</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>237815</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>240756</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>203749</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>320026</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>378794</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>387423</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>325379</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>515215</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>616609</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>628179</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>529127</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>186644; 201387</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>229931; 243521</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>231208; 246955</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>191958; 215657</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>310404; 326708</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>370801; 384390</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>378317; 393901</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>312901; 339641</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>503545; 524851</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>605604; 624702</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>615909; 637079</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>511923; 548887</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1574</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1774</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1706</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1494</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2108</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2273</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2068</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>3682</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>4047</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>3774</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>4194</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1577663</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1906951</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1772634</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1318774</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2157045</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2461823</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2259337</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1778817</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>3734709</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>4368774</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>4031970</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>3097592</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1519872; 1638673</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1849476; 1968067</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1712701; 1832928</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1045718; 1448031</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>2100896; 2222608</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2403543; 2519341</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2202021; 2314803</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1639887; 2155738</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>3652324; 3821214</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>4285196; 4452118</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>3949120; 4116959</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>2816485; 3464703</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>